--- a/BoundyShooter/BoundyShooter/Content/normal.xlsx
+++ b/BoundyShooter/BoundyShooter/Content/normal.xlsx
@@ -27,9 +27,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="30">
   <si>
     <t>E</t>
-  </si>
-  <si>
-    <t>EB</t>
   </si>
   <si>
     <t>E</t>
@@ -141,6 +138,10 @@
   </si>
   <si>
     <t>Ej</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NB</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -570,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -984,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1017,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1031,13 +1032,13 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1064,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P10">
         <v>2</v>
@@ -1084,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1117,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1131,13 +1132,13 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1152,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1164,13 +1165,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P12">
         <v>2</v>
@@ -1831,46 +1832,46 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P26">
         <v>2</v>
@@ -2081,10 +2082,10 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2131,10 +2132,10 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2181,10 +2182,10 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2211,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -2231,10 +2232,10 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2281,10 +2282,10 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -2331,10 +2332,10 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -2381,34 +2382,34 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
         <v>3</v>
       </c>
-      <c r="C37" t="s">
+      <c r="I37" t="s">
         <v>3</v>
       </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37" t="s">
-        <v>4</v>
-      </c>
-      <c r="I37" t="s">
-        <v>4</v>
-      </c>
       <c r="J37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -2664,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -2714,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -2764,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -2796,16 +2797,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -2814,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -2846,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -2864,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -2896,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -2937,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2946,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -2996,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -3046,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -3096,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -3402,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -3617,10 +3618,10 @@
         <v>0</v>
       </c>
       <c r="N61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P61">
         <v>2</v>
@@ -3667,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="N62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O62">
         <v>0</v>
@@ -3717,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="N63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O63">
         <v>0</v>
@@ -3737,13 +3738,13 @@
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -3758,16 +3759,16 @@
         <v>0</v>
       </c>
       <c r="K64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O64">
         <v>0</v>
@@ -3787,13 +3788,13 @@
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -4184,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -4231,13 +4232,13 @@
         <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -4284,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -4331,13 +4332,13 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -4399,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -4461,13 +4462,13 @@
         <v>1</v>
       </c>
       <c r="L78" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M78">
         <v>0</v>
       </c>
       <c r="N78" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O78">
         <v>0</v>
@@ -4514,13 +4515,13 @@
         <v>0</v>
       </c>
       <c r="M79" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N79">
         <v>0</v>
       </c>
       <c r="O79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P79">
         <v>2</v>
@@ -4561,13 +4562,13 @@
         <v>1</v>
       </c>
       <c r="L80" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M80">
         <v>0</v>
       </c>
       <c r="N80" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O80">
         <v>0</v>
@@ -4614,13 +4615,13 @@
         <v>0</v>
       </c>
       <c r="M81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N81">
         <v>0</v>
       </c>
       <c r="O81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P81">
         <v>2</v>
@@ -4890,13 +4891,13 @@
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -5034,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="C90" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -5311,10 +5312,10 @@
         <v>0</v>
       </c>
       <c r="L95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M95" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -5381,13 +5382,13 @@
         <v>2</v>
       </c>
       <c r="B97" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -5514,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="M99" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -5996,10 +5997,10 @@
         <v>0</v>
       </c>
       <c r="G109" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H109" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -6046,10 +6047,10 @@
         <v>0</v>
       </c>
       <c r="G110" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H110" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -6164,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="M112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -6181,16 +6182,16 @@
         <v>2</v>
       </c>
       <c r="B113" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E113" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -6231,16 +6232,16 @@
         <v>2</v>
       </c>
       <c r="B114" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -6305,10 +6306,10 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K115" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L115">
         <v>0</v>
@@ -6355,16 +6356,16 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L116">
         <v>0</v>
       </c>
       <c r="M116" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N116">
         <v>0</v>
@@ -6437,16 +6438,16 @@
         <v>1</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E118" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F118" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G118" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -6490,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="E119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -6587,16 +6588,16 @@
         <v>1</v>
       </c>
       <c r="D121" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E121" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F121" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G121" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -6787,7 +6788,7 @@
         <v>0</v>
       </c>
       <c r="D125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -6817,10 +6818,10 @@
         <v>0</v>
       </c>
       <c r="N125" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O125" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P125">
         <v>2</v>
@@ -6981,10 +6982,10 @@
         <v>2</v>
       </c>
       <c r="B129" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -6999,7 +7000,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -7061,7 +7062,7 @@
         <v>0</v>
       </c>
       <c r="L130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M130">
         <v>0</v>
@@ -7281,46 +7282,46 @@
         <v>2</v>
       </c>
       <c r="B135" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E135" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F135" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G135" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H135" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I135" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J135" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K135" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L135" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M135" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N135" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O135" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P135">
         <v>2</v>
@@ -7731,19 +7732,19 @@
         <v>2</v>
       </c>
       <c r="B144" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E144" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F144" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -7952,25 +7953,25 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J148" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K148" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L148" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M148" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N148" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O148" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P148">
         <v>2</v>
@@ -8002,25 +8003,25 @@
         <v>0</v>
       </c>
       <c r="I149" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J149" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K149" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L149" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M149" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N149" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O149" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P149">
         <v>2</v>
@@ -8087,7 +8088,7 @@
         <v>0</v>
       </c>
       <c r="D151" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -8199,7 +8200,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -8311,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="L155" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M155">
         <v>0</v>
@@ -8481,34 +8482,34 @@
         <v>2</v>
       </c>
       <c r="B159" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E159" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F159" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G159" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H159" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I159" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J159" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K159" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L159">
         <v>0</v>
@@ -8581,28 +8582,28 @@
         <v>2</v>
       </c>
       <c r="B161" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E161" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F161" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G161" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H161" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I161" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J161">
         <v>0</v>
@@ -8681,22 +8682,22 @@
         <v>2</v>
       </c>
       <c r="B163" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E163" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F163" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G163" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -8781,16 +8782,16 @@
         <v>2</v>
       </c>
       <c r="B165" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E165" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -8881,10 +8882,10 @@
         <v>2</v>
       </c>
       <c r="B167" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -8952,7 +8953,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J168">
         <v>0</v>
@@ -9052,7 +9053,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J170">
         <v>0</v>
@@ -9081,7 +9082,7 @@
         <v>2</v>
       </c>
       <c r="B171" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -9131,7 +9132,7 @@
         <v>2</v>
       </c>
       <c r="B172" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -9152,7 +9153,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J172">
         <v>0</v>
@@ -9170,7 +9171,7 @@
         <v>0</v>
       </c>
       <c r="O172" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P172">
         <v>2</v>
@@ -9181,7 +9182,7 @@
         <v>2</v>
       </c>
       <c r="B173" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -9220,7 +9221,7 @@
         <v>0</v>
       </c>
       <c r="O173" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P173">
         <v>2</v>
@@ -9231,28 +9232,28 @@
         <v>2</v>
       </c>
       <c r="B174" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D174" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E174" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F174" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G174" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H174">
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J174">
         <v>0</v>
@@ -9270,7 +9271,7 @@
         <v>0</v>
       </c>
       <c r="O174" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P174">
         <v>2</v>
@@ -9281,7 +9282,7 @@
         <v>2</v>
       </c>
       <c r="B175" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -9320,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="O175" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P175">
         <v>2</v>
@@ -9331,7 +9332,7 @@
         <v>2</v>
       </c>
       <c r="B176" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -9352,7 +9353,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J176">
         <v>0</v>
@@ -9370,7 +9371,7 @@
         <v>0</v>
       </c>
       <c r="O176" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P176">
         <v>2</v>
@@ -9408,19 +9409,19 @@
         <v>0</v>
       </c>
       <c r="K177" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L177" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M177" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N177" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O177" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P177">
         <v>2</v>
@@ -9470,7 +9471,7 @@
         <v>0</v>
       </c>
       <c r="O178" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P178">
         <v>2</v>
@@ -9640,10 +9641,10 @@
         <v>0</v>
       </c>
       <c r="E182" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F182" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -9652,10 +9653,10 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J182" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K182">
         <v>0</v>
@@ -9664,10 +9665,10 @@
         <v>0</v>
       </c>
       <c r="M182" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N182" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O182">
         <v>0</v>
@@ -9690,10 +9691,10 @@
         <v>0</v>
       </c>
       <c r="E183" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F183" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G183">
         <v>0</v>
@@ -9702,10 +9703,10 @@
         <v>0</v>
       </c>
       <c r="I183" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J183" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K183">
         <v>0</v>
@@ -9714,10 +9715,10 @@
         <v>0</v>
       </c>
       <c r="M183" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N183" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O183">
         <v>0</v>
@@ -9834,10 +9835,10 @@
         <v>0</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -9846,10 +9847,10 @@
         <v>0</v>
       </c>
       <c r="G186" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H186" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I186">
         <v>0</v>
@@ -9858,10 +9859,10 @@
         <v>0</v>
       </c>
       <c r="K186" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L186" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M186">
         <v>0</v>
@@ -9884,10 +9885,10 @@
         <v>0</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -9896,10 +9897,10 @@
         <v>0</v>
       </c>
       <c r="G187" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H187" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I187">
         <v>0</v>
@@ -9908,10 +9909,10 @@
         <v>0</v>
       </c>
       <c r="K187" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L187" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M187">
         <v>0</v>
@@ -10181,13 +10182,13 @@
         <v>2</v>
       </c>
       <c r="B193" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -10234,16 +10235,16 @@
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E194">
         <v>0</v>
       </c>
       <c r="F194" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G194">
         <v>0</v>
@@ -10281,13 +10282,13 @@
         <v>2</v>
       </c>
       <c r="B195" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -10349,10 +10350,10 @@
         <v>0</v>
       </c>
       <c r="H196" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I196" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J196">
         <v>0</v>
@@ -10399,10 +10400,10 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I197" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J197">
         <v>0</v>
@@ -10449,10 +10450,10 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I198" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J198">
         <v>0</v>
@@ -10514,13 +10515,13 @@
         <v>0</v>
       </c>
       <c r="M199" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N199" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O199" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P199">
         <v>2</v>
@@ -10558,16 +10559,16 @@
         <v>0</v>
       </c>
       <c r="K200" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L200">
         <v>0</v>
       </c>
       <c r="M200" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N200" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O200">
         <v>1</v>
@@ -10614,13 +10615,13 @@
         <v>0</v>
       </c>
       <c r="M201" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N201" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O201" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P201">
         <v>2</v>
@@ -10737,7 +10738,7 @@
         <v>0</v>
       </c>
       <c r="D204" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E204">
         <v>0</v>
@@ -10846,13 +10847,13 @@
         <v>0</v>
       </c>
       <c r="G206" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H206" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I206" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J206">
         <v>0</v>
@@ -10896,13 +10897,13 @@
         <v>0</v>
       </c>
       <c r="G207" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H207">
         <v>1</v>
       </c>
       <c r="I207" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J207">
         <v>0</v>
@@ -10946,13 +10947,13 @@
         <v>0</v>
       </c>
       <c r="G208" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H208" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I208" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J208">
         <v>0</v>
@@ -11131,7 +11132,7 @@
         <v>2</v>
       </c>
       <c r="B212" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -11170,7 +11171,7 @@
         <v>0</v>
       </c>
       <c r="O212" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P212">
         <v>2</v>
@@ -11181,7 +11182,7 @@
         <v>2</v>
       </c>
       <c r="B213" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -11220,7 +11221,7 @@
         <v>0</v>
       </c>
       <c r="O213" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P213">
         <v>2</v>
@@ -11231,7 +11232,7 @@
         <v>2</v>
       </c>
       <c r="B214" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -11258,7 +11259,7 @@
         <v>0</v>
       </c>
       <c r="K214" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L214">
         <v>0</v>
@@ -11270,7 +11271,7 @@
         <v>0</v>
       </c>
       <c r="O214" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P214">
         <v>2</v>
@@ -11281,7 +11282,7 @@
         <v>2</v>
       </c>
       <c r="B215" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -11320,7 +11321,7 @@
         <v>0</v>
       </c>
       <c r="O215" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P215">
         <v>2</v>
@@ -11331,7 +11332,7 @@
         <v>2</v>
       </c>
       <c r="B216" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -11340,13 +11341,13 @@
         <v>0</v>
       </c>
       <c r="E216" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F216" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G216" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -11370,7 +11371,7 @@
         <v>0</v>
       </c>
       <c r="O216" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P216">
         <v>2</v>
@@ -11602,19 +11603,19 @@
         <v>0</v>
       </c>
       <c r="I221" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J221" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K221" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L221" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M221" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N221">
         <v>0</v>
@@ -11652,19 +11653,19 @@
         <v>0</v>
       </c>
       <c r="I222" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J222" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K222" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L222" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M222" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N222">
         <v>0</v>
@@ -11811,7 +11812,7 @@
         <v>0</v>
       </c>
       <c r="L225" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M225">
         <v>0</v>
@@ -11981,16 +11982,16 @@
         <v>2</v>
       </c>
       <c r="B229" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D229" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E229" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F229">
         <v>0</v>
@@ -12031,16 +12032,16 @@
         <v>2</v>
       </c>
       <c r="B230" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D230" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E230" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F230">
         <v>0</v>
@@ -12052,7 +12053,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J230">
         <v>0</v>
@@ -12061,16 +12062,16 @@
         <v>0</v>
       </c>
       <c r="L230" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M230" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N230" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O230" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P230">
         <v>2</v>
@@ -12087,10 +12088,10 @@
         <v>1</v>
       </c>
       <c r="D231" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E231" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -12111,16 +12112,16 @@
         <v>0</v>
       </c>
       <c r="L231" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M231" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N231" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O231" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P231">
         <v>2</v>
@@ -12131,16 +12132,16 @@
         <v>2</v>
       </c>
       <c r="B232" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D232" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E232" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F232">
         <v>0</v>
@@ -12181,16 +12182,16 @@
         <v>2</v>
       </c>
       <c r="B233" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C233" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D233" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E233" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F233">
         <v>0</v>
@@ -12531,46 +12532,46 @@
         <v>2</v>
       </c>
       <c r="B240" t="s">
+        <v>8</v>
+      </c>
+      <c r="C240" t="s">
+        <v>8</v>
+      </c>
+      <c r="D240" t="s">
+        <v>8</v>
+      </c>
+      <c r="E240" t="s">
+        <v>8</v>
+      </c>
+      <c r="F240" t="s">
+        <v>8</v>
+      </c>
+      <c r="G240" t="s">
+        <v>8</v>
+      </c>
+      <c r="H240" t="s">
+        <v>8</v>
+      </c>
+      <c r="I240" t="s">
+        <v>8</v>
+      </c>
+      <c r="J240" t="s">
+        <v>8</v>
+      </c>
+      <c r="K240" t="s">
+        <v>8</v>
+      </c>
+      <c r="L240" t="s">
+        <v>8</v>
+      </c>
+      <c r="M240" t="s">
+        <v>8</v>
+      </c>
+      <c r="N240" t="s">
+        <v>8</v>
+      </c>
+      <c r="O240" t="s">
         <v>9</v>
-      </c>
-      <c r="C240" t="s">
-        <v>9</v>
-      </c>
-      <c r="D240" t="s">
-        <v>9</v>
-      </c>
-      <c r="E240" t="s">
-        <v>9</v>
-      </c>
-      <c r="F240" t="s">
-        <v>9</v>
-      </c>
-      <c r="G240" t="s">
-        <v>9</v>
-      </c>
-      <c r="H240" t="s">
-        <v>9</v>
-      </c>
-      <c r="I240" t="s">
-        <v>9</v>
-      </c>
-      <c r="J240" t="s">
-        <v>9</v>
-      </c>
-      <c r="K240" t="s">
-        <v>9</v>
-      </c>
-      <c r="L240" t="s">
-        <v>9</v>
-      </c>
-      <c r="M240" t="s">
-        <v>9</v>
-      </c>
-      <c r="N240" t="s">
-        <v>9</v>
-      </c>
-      <c r="O240" t="s">
-        <v>10</v>
       </c>
       <c r="P240">
         <v>2</v>
@@ -12949,7 +12950,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I248">
         <v>0</v>

--- a/BoundyShooter/BoundyShooter/Content/normal.xlsx
+++ b/BoundyShooter/BoundyShooter/Content/normal.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="9756" windowHeight="7320"/>
   </bookViews>
   <sheets>
-    <sheet name="easy" sheetId="1" r:id="rId1"/>
+    <sheet name="normal" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="31">
   <si>
     <t>E</t>
   </si>
@@ -142,6 +142,10 @@
   </si>
   <si>
     <t>NB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ej</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -571,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P250"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E224" sqref="E224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2343,8 +2347,8 @@
       <c r="E36">
         <v>0</v>
       </c>
-      <c r="F36">
-        <v>0</v>
+      <c r="F36" t="s">
+        <v>30</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2490,8 +2494,8 @@
       <c r="D39">
         <v>0</v>
       </c>
-      <c r="E39">
-        <v>0</v>
+      <c r="E39" t="s">
+        <v>30</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2593,8 +2597,8 @@
       <c r="E41">
         <v>0</v>
       </c>
-      <c r="F41">
-        <v>0</v>
+      <c r="F41" t="s">
+        <v>30</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3090,8 +3094,8 @@
       <c r="D51">
         <v>0</v>
       </c>
-      <c r="E51">
-        <v>0</v>
+      <c r="E51" t="s">
+        <v>30</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -3287,8 +3291,8 @@
       <c r="C55">
         <v>0</v>
       </c>
-      <c r="D55">
-        <v>0</v>
+      <c r="D55" t="s">
+        <v>30</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3393,8 +3397,8 @@
       <c r="E57">
         <v>0</v>
       </c>
-      <c r="F57">
-        <v>0</v>
+      <c r="F57" t="s">
+        <v>30</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -3599,8 +3603,8 @@
       <c r="G61">
         <v>0</v>
       </c>
-      <c r="H61">
-        <v>0</v>
+      <c r="H61" t="s">
+        <v>30</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -3855,8 +3859,8 @@
       <c r="I66">
         <v>0</v>
       </c>
-      <c r="J66">
-        <v>0</v>
+      <c r="J66" t="s">
+        <v>30</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -3949,8 +3953,8 @@
       <c r="G68">
         <v>0</v>
       </c>
-      <c r="H68">
-        <v>0</v>
+      <c r="H68" t="s">
+        <v>30</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -4008,8 +4012,8 @@
       <c r="J69">
         <v>0</v>
       </c>
-      <c r="K69">
-        <v>0</v>
+      <c r="K69" t="s">
+        <v>30</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -4305,8 +4309,8 @@
       <c r="I75">
         <v>0</v>
       </c>
-      <c r="J75">
-        <v>0</v>
+      <c r="J75" t="s">
+        <v>30</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -4502,8 +4506,8 @@
       <c r="H79">
         <v>0</v>
       </c>
-      <c r="I79">
-        <v>0</v>
+      <c r="I79" t="s">
+        <v>30</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -4543,8 +4547,8 @@
       <c r="E80">
         <v>0</v>
       </c>
-      <c r="F80">
-        <v>0</v>
+      <c r="F80" t="s">
+        <v>30</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -5005,8 +5009,8 @@
       <c r="I89">
         <v>0</v>
       </c>
-      <c r="J89">
-        <v>0</v>
+      <c r="J89" t="s">
+        <v>30</v>
       </c>
       <c r="K89">
         <v>0</v>
@@ -5061,8 +5065,8 @@
       <c r="K90">
         <v>0</v>
       </c>
-      <c r="L90">
-        <v>0</v>
+      <c r="L90" t="s">
+        <v>30</v>
       </c>
       <c r="M90">
         <v>0</v>
@@ -5102,8 +5106,8 @@
       <c r="H91">
         <v>0</v>
       </c>
-      <c r="I91">
-        <v>0</v>
+      <c r="I91" t="s">
+        <v>30</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -5205,8 +5209,8 @@
       <c r="I93">
         <v>0</v>
       </c>
-      <c r="J93">
-        <v>0</v>
+      <c r="J93" t="s">
+        <v>30</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -5605,8 +5609,8 @@
       <c r="I101">
         <v>0</v>
       </c>
-      <c r="J101">
-        <v>0</v>
+      <c r="J101" t="s">
+        <v>30</v>
       </c>
       <c r="K101">
         <v>0</v>
@@ -5699,8 +5703,8 @@
       <c r="G103">
         <v>0</v>
       </c>
-      <c r="H103">
-        <v>0</v>
+      <c r="H103" t="s">
+        <v>30</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -5755,8 +5759,8 @@
       <c r="I104">
         <v>0</v>
       </c>
-      <c r="J104">
-        <v>0</v>
+      <c r="J104" t="s">
+        <v>30</v>
       </c>
       <c r="K104">
         <v>0</v>
@@ -5811,8 +5815,8 @@
       <c r="K105">
         <v>0</v>
       </c>
-      <c r="L105">
-        <v>0</v>
+      <c r="L105" t="s">
+        <v>30</v>
       </c>
       <c r="M105">
         <v>0</v>
@@ -5905,8 +5909,8 @@
       <c r="I107">
         <v>0</v>
       </c>
-      <c r="J107">
-        <v>0</v>
+      <c r="J107" t="s">
+        <v>30</v>
       </c>
       <c r="K107">
         <v>0</v>
@@ -6743,8 +6747,8 @@
       <c r="E124">
         <v>0</v>
       </c>
-      <c r="F124">
-        <v>0</v>
+      <c r="F124" t="s">
+        <v>30</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -6908,8 +6912,8 @@
       <c r="J127">
         <v>0</v>
       </c>
-      <c r="K127">
-        <v>0</v>
+      <c r="K127" t="s">
+        <v>30</v>
       </c>
       <c r="L127">
         <v>0</v>
@@ -7555,8 +7559,8 @@
       <c r="I140">
         <v>0</v>
       </c>
-      <c r="J140">
-        <v>0</v>
+      <c r="J140" t="s">
+        <v>30</v>
       </c>
       <c r="K140">
         <v>0</v>
@@ -7652,14 +7656,14 @@
       <c r="H142">
         <v>0</v>
       </c>
-      <c r="I142">
-        <v>0</v>
+      <c r="I142" t="s">
+        <v>30</v>
       </c>
       <c r="J142">
         <v>0</v>
       </c>
-      <c r="K142">
-        <v>0</v>
+      <c r="K142" t="s">
+        <v>30</v>
       </c>
       <c r="L142">
         <v>0</v>
@@ -7755,8 +7759,8 @@
       <c r="I144">
         <v>0</v>
       </c>
-      <c r="J144">
-        <v>0</v>
+      <c r="J144" t="s">
+        <v>30</v>
       </c>
       <c r="K144">
         <v>0</v>
@@ -8187,8 +8191,8 @@
       <c r="C153">
         <v>0</v>
       </c>
-      <c r="D153">
-        <v>0</v>
+      <c r="D153" t="s">
+        <v>30</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -8299,8 +8303,8 @@
       <c r="G155">
         <v>0</v>
       </c>
-      <c r="H155">
-        <v>0</v>
+      <c r="H155" t="s">
+        <v>30</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -8411,8 +8415,8 @@
       <c r="K157">
         <v>0</v>
       </c>
-      <c r="L157">
-        <v>0</v>
+      <c r="L157" t="s">
+        <v>30</v>
       </c>
       <c r="M157">
         <v>0</v>
@@ -8664,8 +8668,8 @@
       <c r="L162">
         <v>0</v>
       </c>
-      <c r="M162">
-        <v>0</v>
+      <c r="M162" t="s">
+        <v>30</v>
       </c>
       <c r="N162">
         <v>0</v>
@@ -8708,8 +8712,8 @@
       <c r="J163">
         <v>0</v>
       </c>
-      <c r="K163">
-        <v>0</v>
+      <c r="K163" t="s">
+        <v>30</v>
       </c>
       <c r="L163">
         <v>0</v>
@@ -10096,8 +10100,8 @@
       <c r="F191">
         <v>0</v>
       </c>
-      <c r="G191">
-        <v>0</v>
+      <c r="G191" t="s">
+        <v>30</v>
       </c>
       <c r="H191">
         <v>0</v>
@@ -10199,8 +10203,8 @@
       <c r="G193">
         <v>0</v>
       </c>
-      <c r="H193">
-        <v>0</v>
+      <c r="H193" t="s">
+        <v>30</v>
       </c>
       <c r="I193">
         <v>0</v>
@@ -10540,8 +10544,8 @@
       <c r="D200">
         <v>0</v>
       </c>
-      <c r="E200">
-        <v>0</v>
+      <c r="E200" t="s">
+        <v>30</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -10655,8 +10659,8 @@
       <c r="I202">
         <v>0</v>
       </c>
-      <c r="J202">
-        <v>0</v>
+      <c r="J202" t="s">
+        <v>30</v>
       </c>
       <c r="K202">
         <v>0</v>
@@ -10693,8 +10697,8 @@
       <c r="E203">
         <v>0</v>
       </c>
-      <c r="F203">
-        <v>0</v>
+      <c r="F203" t="s">
+        <v>30</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -11152,8 +11156,8 @@
       <c r="H212">
         <v>0</v>
       </c>
-      <c r="I212">
-        <v>0</v>
+      <c r="I212" t="s">
+        <v>30</v>
       </c>
       <c r="J212">
         <v>0</v>
@@ -11690,8 +11694,8 @@
       <c r="D223">
         <v>0</v>
       </c>
-      <c r="E223">
-        <v>0</v>
+      <c r="E223" t="s">
+        <v>30</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -11811,8 +11815,8 @@
       <c r="K225">
         <v>0</v>
       </c>
-      <c r="L225" t="s">
-        <v>11</v>
+      <c r="L225">
+        <v>0</v>
       </c>
       <c r="M225">
         <v>0</v>
@@ -11846,8 +11850,8 @@
       <c r="F226">
         <v>0</v>
       </c>
-      <c r="G226">
-        <v>0</v>
+      <c r="G226" t="s">
+        <v>30</v>
       </c>
       <c r="H226">
         <v>0</v>
@@ -12149,8 +12153,8 @@
       <c r="G232">
         <v>0</v>
       </c>
-      <c r="H232">
-        <v>0</v>
+      <c r="H232" t="s">
+        <v>30</v>
       </c>
       <c r="I232">
         <v>0</v>

--- a/BoundyShooter/BoundyShooter/Content/normal.xlsx
+++ b/BoundyShooter/BoundyShooter/Content/normal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="37">
   <si>
     <t>E</t>
   </si>
@@ -146,6 +146,30 @@
   </si>
   <si>
     <t>Ej</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -575,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E224" sqref="E224"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -989,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1022,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1038,8 +1062,8 @@
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10">
-        <v>0</v>
+      <c r="C10" t="s">
+        <v>3</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -1071,8 +1095,8 @@
       <c r="M10" t="s">
         <v>8</v>
       </c>
-      <c r="N10">
-        <v>0</v>
+      <c r="N10" t="s">
+        <v>36</v>
       </c>
       <c r="O10" t="s">
         <v>8</v>
@@ -1089,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1122,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1138,8 +1162,8 @@
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12">
-        <v>0</v>
+      <c r="C12" t="s">
+        <v>3</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -1171,8 +1195,8 @@
       <c r="M12" t="s">
         <v>8</v>
       </c>
-      <c r="N12">
-        <v>0</v>
+      <c r="N12" t="s">
+        <v>3</v>
       </c>
       <c r="O12" t="s">
         <v>8</v>
@@ -2091,11 +2115,11 @@
       <c r="C31" t="s">
         <v>8</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31">
         <v>1</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2139,13 +2163,13 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32">
+        <v>33</v>
+      </c>
+      <c r="D32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32">
         <v>1</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2191,11 +2215,11 @@
       <c r="C33" t="s">
         <v>8</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33">
         <v>1</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2715,14 +2739,14 @@
       <c r="K43">
         <v>0</v>
       </c>
-      <c r="L43">
-        <v>0</v>
+      <c r="L43" t="s">
+        <v>31</v>
       </c>
       <c r="M43" t="s">
         <v>2</v>
       </c>
-      <c r="N43">
-        <v>0</v>
+      <c r="N43" t="s">
+        <v>31</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -2765,14 +2789,14 @@
       <c r="K44">
         <v>0</v>
       </c>
-      <c r="L44">
-        <v>0</v>
+      <c r="L44" t="s">
+        <v>31</v>
       </c>
       <c r="M44" t="s">
-        <v>2</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="N44" t="s">
+        <v>31</v>
       </c>
       <c r="O44">
         <v>0</v>
@@ -2815,14 +2839,14 @@
       <c r="K45">
         <v>0</v>
       </c>
-      <c r="L45">
-        <v>0</v>
+      <c r="L45" t="s">
+        <v>31</v>
       </c>
       <c r="M45" t="s">
         <v>2</v>
       </c>
-      <c r="N45">
-        <v>0</v>
+      <c r="N45" t="s">
+        <v>31</v>
       </c>
       <c r="O45">
         <v>0</v>
@@ -4238,8 +4262,8 @@
       <c r="B74" t="s">
         <v>8</v>
       </c>
-      <c r="C74">
-        <v>0</v>
+      <c r="C74" t="s">
+        <v>34</v>
       </c>
       <c r="D74" t="s">
         <v>26</v>
@@ -4568,8 +4592,8 @@
       <c r="L80" t="s">
         <v>8</v>
       </c>
-      <c r="M80">
-        <v>0</v>
+      <c r="M80" t="s">
+        <v>34</v>
       </c>
       <c r="N80" t="s">
         <v>8</v>
@@ -5488,8 +5512,8 @@
       <c r="B99">
         <v>0</v>
       </c>
-      <c r="C99">
-        <v>0</v>
+      <c r="C99" t="s">
+        <v>34</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -8644,8 +8668,8 @@
       <c r="D162">
         <v>0</v>
       </c>
-      <c r="E162">
-        <v>0</v>
+      <c r="E162" t="s">
+        <v>34</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -10572,10 +10596,10 @@
         <v>8</v>
       </c>
       <c r="N200" t="s">
-        <v>8</v>
-      </c>
-      <c r="O200">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="O200" t="s">
+        <v>31</v>
       </c>
       <c r="P200">
         <v>2</v>
@@ -12092,7 +12116,7 @@
         <v>1</v>
       </c>
       <c r="D231" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E231" t="s">
         <v>8</v>

--- a/BoundyShooter/BoundyShooter/Content/normal.xlsx
+++ b/BoundyShooter/BoundyShooter/Content/normal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="38">
   <si>
     <t>E</t>
   </si>
@@ -170,6 +170,10 @@
   </si>
   <si>
     <t>w</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -599,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P250"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3689,8 +3693,8 @@
       <c r="K62">
         <v>0</v>
       </c>
-      <c r="L62">
-        <v>0</v>
+      <c r="L62" t="s">
+        <v>37</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -4262,8 +4266,8 @@
       <c r="B74" t="s">
         <v>8</v>
       </c>
-      <c r="C74" t="s">
-        <v>34</v>
+      <c r="C74">
+        <v>0</v>
       </c>
       <c r="D74" t="s">
         <v>26</v>
@@ -4592,8 +4596,8 @@
       <c r="L80" t="s">
         <v>8</v>
       </c>
-      <c r="M80" t="s">
-        <v>34</v>
+      <c r="M80">
+        <v>0</v>
       </c>
       <c r="N80" t="s">
         <v>8</v>

--- a/BoundyShooter/BoundyShooter/Content/normal.xlsx
+++ b/BoundyShooter/BoundyShooter/Content/normal.xlsx
@@ -603,7 +603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>

--- a/BoundyShooter/BoundyShooter/Content/normal.xlsx
+++ b/BoundyShooter/BoundyShooter/Content/normal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="41">
   <si>
     <t>E</t>
   </si>
@@ -157,7 +157,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>w</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -169,7 +181,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>w</t>
+    <t>H</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -603,65 +615,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -706,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
@@ -714,46 +726,46 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3">
         <v>2</v>
@@ -772,8 +784,8 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="E4" t="s">
+        <v>40</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -793,8 +805,8 @@
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="L4">
-        <v>0</v>
+      <c r="L4" t="s">
+        <v>40</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -916,8 +928,8 @@
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7">
-        <v>0</v>
+      <c r="C7" t="s">
+        <v>38</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -949,8 +961,8 @@
       <c r="M7">
         <v>0</v>
       </c>
-      <c r="N7">
-        <v>0</v>
+      <c r="N7" t="s">
+        <v>39</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1016,8 +1028,8 @@
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9" t="s">
-        <v>33</v>
+      <c r="C9">
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1049,8 +1061,8 @@
       <c r="M9">
         <v>0</v>
       </c>
-      <c r="N9" t="s">
-        <v>33</v>
+      <c r="N9">
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1100,7 +1112,7 @@
         <v>8</v>
       </c>
       <c r="N10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O10" t="s">
         <v>8</v>
@@ -1116,8 +1128,8 @@
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11" t="s">
-        <v>35</v>
+      <c r="C11">
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1149,8 +1161,8 @@
       <c r="M11">
         <v>0</v>
       </c>
-      <c r="N11" t="s">
-        <v>33</v>
+      <c r="N11">
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1216,8 +1228,8 @@
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13">
-        <v>0</v>
+      <c r="C13" t="s">
+        <v>37</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1249,8 +1261,8 @@
       <c r="M13">
         <v>0</v>
       </c>
-      <c r="N13">
-        <v>0</v>
+      <c r="N13" t="s">
+        <v>37</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -2131,8 +2143,8 @@
       <c r="G31">
         <v>0</v>
       </c>
-      <c r="H31">
-        <v>0</v>
+      <c r="H31" t="s">
+        <v>34</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2167,7 +2179,7 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D32" t="s">
         <v>31</v>
@@ -2797,7 +2809,7 @@
         <v>31</v>
       </c>
       <c r="M44" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="N44" t="s">
         <v>31</v>
@@ -3693,8 +3705,8 @@
       <c r="K62">
         <v>0</v>
       </c>
-      <c r="L62" t="s">
-        <v>37</v>
+      <c r="L62">
+        <v>0</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -3781,8 +3793,8 @@
       <c r="G64">
         <v>0</v>
       </c>
-      <c r="H64">
-        <v>0</v>
+      <c r="H64" t="s">
+        <v>34</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -5025,8 +5037,8 @@
       <c r="E89">
         <v>0</v>
       </c>
-      <c r="F89">
-        <v>0</v>
+      <c r="F89" t="s">
+        <v>34</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -5340,8 +5352,8 @@
       <c r="J95">
         <v>0</v>
       </c>
-      <c r="K95">
-        <v>0</v>
+      <c r="K95" t="s">
+        <v>35</v>
       </c>
       <c r="L95" t="s">
         <v>18</v>
@@ -5443,8 +5455,8 @@
       <c r="K97">
         <v>0</v>
       </c>
-      <c r="L97">
-        <v>0</v>
+      <c r="L97" t="s">
+        <v>34</v>
       </c>
       <c r="M97">
         <v>0</v>
@@ -5516,8 +5528,8 @@
       <c r="B99">
         <v>0</v>
       </c>
-      <c r="C99" t="s">
-        <v>34</v>
+      <c r="C99">
+        <v>0</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -8166,8 +8178,8 @@
       <c r="B152">
         <v>0</v>
       </c>
-      <c r="C152">
-        <v>0</v>
+      <c r="C152" t="s">
+        <v>34</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -8672,8 +8684,8 @@
       <c r="D162">
         <v>0</v>
       </c>
-      <c r="E162" t="s">
-        <v>34</v>
+      <c r="E162">
+        <v>0</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -10600,7 +10612,7 @@
         <v>8</v>
       </c>
       <c r="N200" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O200" t="s">
         <v>31</v>
@@ -10919,8 +10931,8 @@
       <c r="C207">
         <v>0</v>
       </c>
-      <c r="D207">
-        <v>0</v>
+      <c r="D207" t="s">
+        <v>34</v>
       </c>
       <c r="E207">
         <v>0</v>
